--- a/data/financial_statements/soci/FITB.xlsx
+++ b/data/financial_statements/soci/FITB.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,1775 +584,1814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>2312000000</v>
+      </c>
+      <c r="C2">
         <v>2166000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2048000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2010000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2289000000</v>
       </c>
-      <c r="F2">
-        <v>1870000000</v>
-      </c>
       <c r="G2">
+        <v>2128000000</v>
+      </c>
+      <c r="H2">
         <v>2064000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2051000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2102000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2051000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2053000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2196000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2595000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2365000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2296000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2534000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1968000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1878000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2012000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2115000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1721000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2713000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1670000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1609000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1672000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1897000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1645000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1675000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2133000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1739000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1559000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1600000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1664000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1538000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1744000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1557000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1705000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1713000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>2044000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1738000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.1583</v>
+        <v>0.01</v>
       </c>
       <c r="C3">
+        <v>0.0179</v>
+      </c>
+      <c r="D3">
         <v>-0.0078</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.02</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.089</v>
       </c>
-      <c r="F3">
-        <v>-0.0882</v>
-      </c>
       <c r="G3">
+        <v>0.0375</v>
+      </c>
+      <c r="H3">
         <v>0.0054</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.066</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.19</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1328</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.1058</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.1334</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.3186</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.2593</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1412</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.1981</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1435</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>-0.3078</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.2048</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.3145</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0293</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.4302</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0152</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-0.0394</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.2161</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.09089999999999999</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0552</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0469</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.2819</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.1307</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.1061</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0276</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.024</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.1022</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.1468</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.1041</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.1017</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0112</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.1988</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0392</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>498000000</v>
+      </c>
+      <c r="C4">
         <v>262000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>125000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>94000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>97000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>103000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>115000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>126000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>132000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>159000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>203000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>296000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>332000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>383000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>391000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>351000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>312000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>272000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>249000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>210000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>189000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>182000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>167000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>153000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>149000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>150000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>144000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>135000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>131000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>125000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>116000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>123000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>128000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>115000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>108000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>100000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>102000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>99000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>104000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>107000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>2312000000</v>
+      </c>
+      <c r="C5">
         <v>2170000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2015000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1879000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1989000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2025000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1949000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1925000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1970000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1892000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1850000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1900000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2263000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1982000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1905000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2183000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1656000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1606000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1763000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1905000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1532000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2531000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1503000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1456000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1523000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1747000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1501000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1540000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2002000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1614000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1443000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1477000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1536000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1423000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1636000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1457000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1603000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1614000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1940000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1631000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>1398000000</v>
+      </c>
+      <c r="C6">
         <v>1325000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1291000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1267000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1161000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1130000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1038000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1042000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1223000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1146000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1606000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1840000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1323000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1293000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1328000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1187000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1071000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1056000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1015000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1023000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>932000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1042000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1009000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1060000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>871000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>1053000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1074000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1105000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1054000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1099000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1026000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>992000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1016000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>959000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1030000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1019000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>1041000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1010000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1099000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1040000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>914000000</v>
+      </c>
+      <c r="C7">
         <v>845000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>724000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>612000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>828000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>895000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>911000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>883000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>747000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>746000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>244000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>60000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>940000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>689000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>577000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>996000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>585000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>550000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>748000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>882000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>600000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1489000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>494000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>396000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>652000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>694000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>427000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>435000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>948000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>515000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>417000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>485000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>520000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>464000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>606000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>438000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>562000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>604000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>841000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>591000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2000000</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C8">
         <v>2000000</v>
       </c>
       <c r="D8">
+        <v>2000000</v>
+      </c>
+      <c r="E8">
         <v>4000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>15000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>34000000</v>
-      </c>
-      <c r="J8">
-        <v>11000000</v>
       </c>
       <c r="K8">
         <v>11000000</v>
       </c>
       <c r="L8">
+        <v>11000000</v>
+      </c>
+      <c r="M8">
         <v>15000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>914000000</v>
+      </c>
+      <c r="C9">
         <v>845000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>724000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>612000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>829000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>895000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>911000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>883000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>747000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>746000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>244000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>60000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>940000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>689000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>577000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>996000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>585000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>550000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>748000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>882000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>600000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1489000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>494000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>396000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>652000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>694000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>427000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>435000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>948000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>515000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>417000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>485000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>520000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>464000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>606000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>438000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>562000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>604000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>841000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>591000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>177000000</v>
+      </c>
+      <c r="C10">
         <v>192000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>162000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>118000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>165000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>191000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>202000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>189000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>142000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>165000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>49000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>14000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>205000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>140000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>124000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>221000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>131000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>114000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>146000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>181000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>106000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>475000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>127000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>91000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>275000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>178000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>103000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>109000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>293000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>134000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>108000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>124000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>135000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>124000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>167000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>119000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>160000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>183000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>250000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>179000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>737000000</v>
+      </c>
+      <c r="C11">
         <v>653000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>562000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>494000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>663000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>704000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>709000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>694000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>605000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>581000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>195000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>46000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>735000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>549000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>453000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>775000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>454000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>436000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>602000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>701000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>494000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1014000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>367000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>305000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>377000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>516000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>324000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>326000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>655000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>381000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>309000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>361000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>385000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>340000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>439000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>319000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>402000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>421000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>591000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>412000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>38000000</v>
+      </c>
+      <c r="C12">
         <v>22000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>36000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>20000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>35000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>21000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>35000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>20000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>36000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>19000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>32000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>17000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>33000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>19000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>26000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>15000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>22000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>15000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>23000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>15000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>18000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>15000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>27000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>15000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>19000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>15000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>23000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>18000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>27000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>19000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>26000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>18000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>31000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>12000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>27000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>9000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>19000000</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
       <c r="AM12">
-        <v>9000000</v>
+        <v>0</v>
       </c>
       <c r="AN12">
         <v>9000000</v>
       </c>
+      <c r="AO12">
+        <v>9000000</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB13">
         <v>-4000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-6000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>1000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>1000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-10000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>699000000</v>
+      </c>
+      <c r="C14">
         <v>631000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>525000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>473000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>623000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>683000000</v>
-      </c>
-      <c r="G14">
-        <v>674000000</v>
       </c>
       <c r="H14">
         <v>674000000</v>
       </c>
       <c r="I14">
+        <v>674000000</v>
+      </c>
+      <c r="J14">
         <v>569000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>562000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>163000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>29000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>702000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>530000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>427000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>760000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>432000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>421000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>579000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>686000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>476000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>999000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>340000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>290000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>358000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>501000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>305000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>308000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>628000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>362000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>289000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>343000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>353000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>328000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>412000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>309000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>383000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>421000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>582000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>413000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>1.01</v>
+      </c>
+      <c r="C15">
         <v>0.91</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.76</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.68</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.9</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <v>0.98</v>
+      </c>
+      <c r="H15">
+        <v>0.95</v>
+      </c>
+      <c r="I15">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.79</v>
+      </c>
+      <c r="K15">
+        <v>0.78</v>
+      </c>
+      <c r="L15">
+        <v>0.23</v>
+      </c>
+      <c r="M15">
+        <v>0.04</v>
+      </c>
+      <c r="N15">
         <v>0.97</v>
       </c>
-      <c r="G15">
-        <v>0.95</v>
-      </c>
-      <c r="H15">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.79</v>
-      </c>
-      <c r="J15">
-        <v>0.78</v>
-      </c>
-      <c r="K15">
-        <v>0.23</v>
-      </c>
-      <c r="L15">
-        <v>0.04</v>
-      </c>
-      <c r="M15">
-        <v>0.97</v>
-      </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.72</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.57</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.14</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.65</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.62</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.8100000000000001</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.99</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.68</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.37</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0.46</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0.38</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>0.49</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.66</v>
-      </c>
-      <c r="AA15">
-        <v>0.4</v>
       </c>
       <c r="AB15">
         <v>0.4</v>
       </c>
       <c r="AC15">
+        <v>0.4</v>
+      </c>
+      <c r="AD15">
         <v>0.8</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.46</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>0.36</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>0.45</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.44</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>0.39</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.49</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>0.36</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.44</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>0.47</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>0.47</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>0.91</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.76</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.68</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.9</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.97</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.9399999999999999</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.93</v>
-      </c>
-      <c r="I16">
-        <v>0.78</v>
       </c>
       <c r="J16">
         <v>0.78</v>
       </c>
       <c r="K16">
+        <v>0.78</v>
+      </c>
+      <c r="L16">
         <v>0.23</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.04</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.96</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.71</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.57</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.12</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.64</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.61</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.8</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.97</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.67</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1.35</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.45</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.38</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>0.49</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.65</v>
-      </c>
-      <c r="AA16">
-        <v>0.4</v>
       </c>
       <c r="AB16">
         <v>0.4</v>
       </c>
       <c r="AC16">
+        <v>0.4</v>
+      </c>
+      <c r="AD16">
         <v>0.79</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.45</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.36</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.44</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.43</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.39</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.49</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.36</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.43</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.47</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.66</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.46</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>689000000</v>
@@ -2247,364 +2400,373 @@
         <v>689000000</v>
       </c>
       <c r="D17">
-        <v>688000000</v>
+        <v>689000000</v>
       </c>
       <c r="E17">
         <v>688000000</v>
       </c>
       <c r="F17">
-        <v>697000000</v>
+        <v>688000000</v>
       </c>
       <c r="G17">
+        <v>697457500</v>
+      </c>
+      <c r="H17">
         <v>708832800</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>714432800</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>714729600</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>715102100</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>714766500</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>713555700</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>710433600</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>726715500</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>738051400</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>661057100</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>673346200</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>667624100</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>683344800</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>689820300</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>728289200</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>721280000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>741400700</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>747668000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>757432300</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>750886000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>759105400</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>773564100</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>798628200</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>795792800</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>803965000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>810209600</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>833116300</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>829392000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>838492000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>845860000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>869463000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>880183000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>858582700</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>870923100</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>695000000</v>
+        <v>694000000</v>
       </c>
       <c r="C18">
         <v>695000000</v>
       </c>
       <c r="D18">
+        <v>695000000</v>
+      </c>
+      <c r="E18">
         <v>696000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>698000000</v>
       </c>
-      <c r="F18">
-        <v>706000000</v>
-      </c>
       <c r="G18">
+        <v>706089700</v>
+      </c>
+      <c r="H18">
         <v>718084700</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>723425100</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>719735400</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>718893900</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>717571900</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>720362700</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>720065500</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>736086400</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>747749600</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>670685000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>685488500</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>679198700</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>696210000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>704101000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>740691400</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>733285000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>752328300</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>760809000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>764495400</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>757856000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>764811000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>777757900</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>807658700</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>805022600</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>812843000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>818672300</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>842967300</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>838324000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>848245000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>857923600</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>894736000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>888111000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>900625500</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>913163300</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>1.0018</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.9839</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.9348</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.8689</v>
       </c>
-      <c r="F19">
-        <v>1.0829</v>
-      </c>
       <c r="G19">
+        <v>0.9516</v>
+      </c>
+      <c r="H19">
         <v>0.9443</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.9386</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.9372</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.9225</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.9011</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.8652</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.8721</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.8381</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.8297</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.8615</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.8415</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.8552</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.8762</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.9006999999999999</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.8902</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.9329</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.9</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.9049</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.9109</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.9209000000000001</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.9125</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.9194</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.9386</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.9281</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.9256</v>
-      </c>
-      <c r="AF19">
-        <v>0.9231</v>
       </c>
       <c r="AG19">
         <v>0.9231</v>
       </c>
       <c r="AH19">
+        <v>0.9231</v>
+      </c>
+      <c r="AI19">
         <v>0.9252</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.9381</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.9358</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.9402</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.9422</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.9491000000000001</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.9384</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2723,1108 +2885,1135 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.3953</v>
+      </c>
+      <c r="C21">
         <v>0.3901</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3535</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3045</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.3622</v>
       </c>
-      <c r="F21">
-        <v>0.4786</v>
-      </c>
       <c r="G21">
+        <v>0.4206</v>
+      </c>
+      <c r="H21">
         <v>0.4414</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.4305</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.3554</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.3637</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.1189</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.0273</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.3622</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2913</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2513</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.3931</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.2973</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2929</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.3718</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.417</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.3486</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.5488</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2958</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2461</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.39</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3658</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2596</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2597</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.4444</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2961</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2675</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.3031</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.3125</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.3017</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.3475</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.2813</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.3296</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.3526</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.4114</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.34</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.3023</v>
+      </c>
+      <c r="C22">
         <v>0.2913</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2563</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2353</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2722</v>
       </c>
-      <c r="F22">
-        <v>0.3652</v>
-      </c>
       <c r="G22">
+        <v>0.321</v>
+      </c>
+      <c r="H22">
         <v>0.3266</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.3286</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.2707</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.274</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.0794</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.0132</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.2705</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2241</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.186</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2999</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.2195</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2242</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2878</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.3243</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.2766</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.3682</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2036</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1802</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2141</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2641</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.1854</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1839</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2944</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.2082</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.1854</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2144</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.2121</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.2133</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.2362</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1985</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.2246</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2458</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2847</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.2376</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>737000000</v>
+      </c>
+      <c r="C23">
         <v>653000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>562000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>494000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>663000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>704000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>709000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>694000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>605000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>581000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>195000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>46000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>735000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>549000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>453000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>775000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>454000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>436000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>602000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>701000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>494000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1014000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>367000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>305000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>377000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>516000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>324000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>326000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>655000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>381000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>309000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>361000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>385000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>340000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>439000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>319000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>402000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>421000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>591000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>412000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>737000000</v>
+      </c>
+      <c r="C24">
         <v>653000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>561000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>493000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>658000000</v>
       </c>
-      <c r="F24">
-        <v>703000000</v>
-      </c>
       <c r="G24">
+        <v>704000000</v>
+      </c>
+      <c r="H24">
         <v>709000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>694000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>605000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>581000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>195000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>46000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>735000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>549000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>453000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>775000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>454000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>436000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>602000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>701000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>494000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1014000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>367000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>305000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>377000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>516000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>324000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>326000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>655000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>381000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>309000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>361000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>385000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>340000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>439000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>319000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>402000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>421000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>591000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>412000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>1.0702</v>
+      </c>
+      <c r="C25">
         <v>0.9474</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.8157</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.7185</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.9638</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.0094</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.0002</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.9714</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.8468</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.8125</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.2728</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.0645</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.9943</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.7554999999999999</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.6138</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1.1724</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.7066</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.6531</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.881</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1.0162</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.6845</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1.4058</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.495</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.4079</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.5017</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.6872</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.4268</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.4214</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.8275</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.4788</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.3843</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.4456</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.4694</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.4099</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.5236</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.3771</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.4604</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.4783</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.6883</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.4731</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1.0617</v>
+      </c>
+      <c r="C26">
         <v>0.9401</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.8089</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.7095</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.9510999999999999</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.997</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.9873</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.9593</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.8389</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.8082</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.2717</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.0639</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.9814000000000001</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.7458</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.6058</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.1555</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.697</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.6419</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.8647</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.9956</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.6717</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1.3828</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.4878</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.4009</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.4947</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.6808999999999999</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.4236</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.4192</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.8179</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.4733</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.3801</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.441</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.4643</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.4056</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.5175</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.3718</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.4594</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.474</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.6562</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.4512</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1.0702</v>
+      </c>
+      <c r="C27">
         <v>0.9474</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.8157</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.7185</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.9638</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.0094</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.0002</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.9714</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.8468</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.8125</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.2728</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.0645</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.9943</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.7554999999999999</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.6138</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1.1724</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.7066</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.6531</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.881</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.0162</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.6845</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1.4058</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.495</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.4079</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.5017</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.6872</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.4268</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.4214</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.8275</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.4788</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.3843</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.4456</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.4694</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.4099</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.5236</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.3771</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.4604</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.4783</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.6883</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0.4731</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1.0617</v>
+      </c>
+      <c r="C28">
         <v>0.9401</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.8089</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.7095</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.9510999999999999</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.997</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.9873</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.9593</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.8389</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.8082</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.2717</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.0639</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.9814000000000001</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.7458</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.6058</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.1555</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.697</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.6419</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.8647</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.9956</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.6717</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1.3828</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.4878</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.4009</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.4947</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.6808999999999999</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.4236</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.4192</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.8179</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.4733</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.3801</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.441</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.4643</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.4056</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.5175</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.3718</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.4594</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.474</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.6562</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.4512</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>694593000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>692105000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>696242000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>697532000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>706090000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>718085000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>723425000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>722096000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>718894000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>717572000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>720363000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>724968000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>736086000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>747750000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>670685000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>662966000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>679199000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>696210000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>704101000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>716908000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>733285000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>752328000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>760809000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>757444000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>750886000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>765080000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>778392000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>794481000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>805023000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>812843000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>818672000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>827831000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>838324000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>848245000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>857924000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>877511000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>888111000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>900625000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>913163000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3943,126 +4132,132 @@
       <c r="AN30">
         <v>0</v>
       </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>0.7895</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.4678</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.8393</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.5863</v>
       </c>
-      <c r="F31">
-        <v>0.6626</v>
-      </c>
       <c r="G31">
+        <v>0.5822000000000001</v>
+      </c>
+      <c r="H31">
         <v>0.2369</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.1784</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.7821</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.0307</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.7399</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.1972</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.5314</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-0.1535</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.1193</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.2107</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.4721</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.3376</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.5109</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.1253</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.1464</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.216</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.06710000000000001</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.3294</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.5329</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.2625</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.1866</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.2358</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.4224</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.326</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.2867</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.3144</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.3131</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.3836</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.3584</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.2184</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.4504</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.7215</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.6683</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.7048</v>
       </c>
     </row>
